--- a/public/FileImportMilitary/DC_DiaPhuong.xlsx
+++ b/public/FileImportMilitary/DC_DiaPhuong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tai lieu\NCKH_K60\TaiLieuTestCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tai lieu\NCKH_K60\File_Code\NCKH\Backend_NCKH\public\FileImportMilitary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D72B6-9746-47EB-89DB-0D2ABE61ABF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D6939A-4637-462E-B82A-5721F4C7BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E432A2BE-2905-466D-81D6-202721194E44}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>stt</t>
   </si>
@@ -45,9 +45,6 @@
     <t>ngày cấp</t>
   </si>
   <si>
-    <t>ngày hết hạn</t>
-  </si>
-  <si>
     <t>nơi ở hiện tại</t>
   </si>
   <si>
@@ -63,16 +60,67 @@
     <t>mã giấy đăng ký</t>
   </si>
   <si>
-    <t>Cầu giấy hà nội</t>
-  </si>
-  <si>
-    <t>Ban CHQS phường quan hoa</t>
-  </si>
-  <si>
     <t>Trúng tuyển đại học cao đẳng</t>
   </si>
   <si>
-    <t>Trường DH GTVT</t>
+    <t>Vạn Điểm, Thường tín, Hà Nội</t>
+  </si>
+  <si>
+    <t>Trường ĐH GTVT</t>
+  </si>
+  <si>
+    <t>Khu Quán Gỏi, xã Hưng Thịnh, Bình Giang, Hải Dương</t>
+  </si>
+  <si>
+    <t>BCHQS XÃ HƯNG THỊNH</t>
+  </si>
+  <si>
+    <t>BCHQS XÃ VẠN ĐIỂM</t>
+  </si>
+  <si>
+    <t>Ấp Đông Côi, Thị trấn Hồ, Thuận Thành, Bắc Ninh</t>
+  </si>
+  <si>
+    <t>Ban CHQS THỊ TRẤN HỒ</t>
+  </si>
+  <si>
+    <t>Thôn 1, Đông Mỹ, Thanh Trì, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ ĐÔNG MỸ</t>
+  </si>
+  <si>
+    <t>Lạc Thổ Nam, Thị trấn Hồ, Thuận Thành, Bắc Ninh</t>
+  </si>
+  <si>
+    <t>số 9 ngách 99/3 Nguyễn Chí Thanh, Láng Hạ, Đống Đa, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG LÁNG HẠ</t>
+  </si>
+  <si>
+    <t>Vũ Hòa, Kiến Xương, Thái Bình</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ VŨ HÒA</t>
+  </si>
+  <si>
+    <t>Thôn Thống Nhất, Thành Vinh, Thạch Thành, Thanh Hóa</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ THÀNH VINH</t>
+  </si>
+  <si>
+    <t>thôn Thống nhất, xã Phương Khoan, huyện Sông Lô, Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ PHƯƠNG KHOAN</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ MINH THANH</t>
+  </si>
+  <si>
+    <t>thôn Lê, xã Minh Thanh, Sơn Dương, Tuyên Quang</t>
   </si>
 </sst>
 </file>
@@ -425,25 +473,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C63CFA-5EB6-4135-9FE7-621954B2F8AB}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.9140625" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
-    <col min="9" max="9" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="52.75" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,37 +515,745 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>44125</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44186</v>
+        <v>43696</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43691</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43693</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43692</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43691</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43689</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43690</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43689</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43693</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
+      <c r="H12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="H37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="H38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="H40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="H43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="H44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="H45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="H47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="H48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="H49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="H50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="H52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="H53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="H54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="H55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="H56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="H57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="H58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="H59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="H60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="H61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="H62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="H63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="H64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="H65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="H66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="H67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="H68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="H69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="H70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="H71">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/public/FileImportMilitary/DC_DiaPhuong.xlsx
+++ b/public/FileImportMilitary/DC_DiaPhuong.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tai lieu\NCKH_K60\File_Code\NCKH\Backend_NCKH\public\FileImportMilitary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D6939A-4637-462E-B82A-5721F4C7BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E432A2BE-2905-466D-81D6-202721194E44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>stt</t>
   </si>
@@ -57,9 +56,6 @@
     <t>ban chỉ huy</t>
   </si>
   <si>
-    <t>mã giấy đăng ký</t>
-  </si>
-  <si>
     <t>Trúng tuyển đại học cao đẳng</t>
   </si>
   <si>
@@ -121,17 +117,200 @@
   </si>
   <si>
     <t>thôn Lê, xã Minh Thanh, Sơn Dương, Tuyên Quang</t>
+  </si>
+  <si>
+    <t>khu 4, xã Sơn Dương, huyện Lâm Thao, tỉnh Phú Thọ</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ SƠN DƯƠNG</t>
+  </si>
+  <si>
+    <t>thôn Chiềng, Thái hưng, Hưng Hả, Thái Bình</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ THÁI HƯNG</t>
+  </si>
+  <si>
+    <t>Cụm 1, xã Thọ An, Đan Phượng, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ THỌ AN</t>
+  </si>
+  <si>
+    <t>Đông Ngân, Đông Hội, Đông Anh, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ ĐÔNG HỘI</t>
+  </si>
+  <si>
+    <t>Đội 3, Thôn Nhuế, Kim Chung, Đông Anh, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ KIM CHUNG</t>
+  </si>
+  <si>
+    <t>Khu 1, Sơn thủy, Thanh Thủy, Phú Thọ</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ SƠN THỦY</t>
+  </si>
+  <si>
+    <t>Quỳnh Giao, Quỳnh Phụ, Thái Bình</t>
+  </si>
+  <si>
+    <t>BAN CHQS HUYỆN QUỲNH PHỤ</t>
+  </si>
+  <si>
+    <t>Tổ 1, khu phố 4, Ba Đình, Bỉm Sơn, Thanh Hóa</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG BA ĐÌNH</t>
+  </si>
+  <si>
+    <t>Hợp Thanh, Mỹ Đức, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ HỢP THANH</t>
+  </si>
+  <si>
+    <t>Thôn Bắc, Cổ Dũng, Kim Thành, Hải Dương</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ CỔ DŨNG</t>
+  </si>
+  <si>
+    <t>Thôn 9, Xã An Tường, TP.Tuyên Quang</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ AN TƯỜNG</t>
+  </si>
+  <si>
+    <t>Thiên Cầm, Cẩm Xuyên, Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>BAN CHQS THỊ TRẤN THIÊN CẦM</t>
+  </si>
+  <si>
+    <t>xã Hòa Sơn, Đô Lương, Nghệ An</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ HÒA SƠN</t>
+  </si>
+  <si>
+    <t>xóm 10, Diễn Trung, Diễn Châu, Nghệ An</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ DIỄN TRUNG</t>
+  </si>
+  <si>
+    <t>xã Tân Lập, Đan Phượng, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ TÂN LẬP</t>
+  </si>
+  <si>
+    <t>xóm 12, xã Nam Giang, Nam Đàn, Nghệ An</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ NAM GIANG</t>
+  </si>
+  <si>
+    <t>số 09, Ngõ 19 Xương Giang, Tổ 6, P.Ngô Quyền, TP. Bắc Giang, T.Bắc Giang</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG NGÔ QUYỀN</t>
+  </si>
+  <si>
+    <t>Cụm 8, Hạ Mỗ, Đan Phượng, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ HẠ MỖ</t>
+  </si>
+  <si>
+    <t>Làng Phan, Hợp Thành, Yên Thành, Nghệ An</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ HỢP THÀNH</t>
+  </si>
+  <si>
+    <t>Phú Nam An, Chương Mỹ, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ PHÚ NAM AN</t>
+  </si>
+  <si>
+    <t>Thôn Sài Khê, xã Sài Sơn, Quốc Oai, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ SÀI SƠN</t>
+  </si>
+  <si>
+    <t>Tổ 20, phường Bắc Cường, TP.Lào Cai, T.Lào Cai</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG BẮC CƯỜNG</t>
+  </si>
+  <si>
+    <t>Thanh Xuân Trung, Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS P.THANH XUÂN TRUNG</t>
+  </si>
+  <si>
+    <t>thị trấn Trâu Quỳ, Gia Lâm, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS TT TRÂU QUỲ</t>
+  </si>
+  <si>
+    <t>42 Lê Thánh Tông, P. Lê Thanh Nghị, TP.Hải Dương</t>
+  </si>
+  <si>
+    <t>BAN CHQS P.LÊ THANH NGHỊ</t>
+  </si>
+  <si>
+    <t>TDP Cáo Đỉnh 1, Xuân Đỉnh, Bắc Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG XUÂN ĐỈNH</t>
+  </si>
+  <si>
+    <t>Thái Hòa, Ba Vì, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ THÁI HÒA</t>
+  </si>
+  <si>
+    <t>Đại Kim, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG ĐẠI KIM</t>
+  </si>
+  <si>
+    <t>xã Đông Ninh, Khoái Châu, Hưng Yên</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ TÂN CHÂU</t>
+  </si>
+  <si>
+    <t>xóm 5, xã Thanh Văn, Thanh Chương, Nghệ An</t>
+  </si>
+  <si>
+    <t>BAN CHQS THANH VĂN</t>
+  </si>
+  <si>
+    <t>mã sinh viên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,12 +335,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,25 +652,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C63CFA-5EB6-4135-9FE7-621954B2F8AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.9140625" customWidth="1"/>
-    <col min="4" max="4" width="52.75" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.4140625" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="63.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,11 +692,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -527,22 +707,22 @@
         <v>43696</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191240003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -553,22 +733,22 @@
         <v>44148</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
       <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191201705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -579,22 +759,22 @@
         <v>43691</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
       <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191244077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -605,22 +785,22 @@
         <v>43693</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
       <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191213574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -631,22 +811,22 @@
         <v>43692</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
       <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191240086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -657,22 +837,22 @@
         <v>43691</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191212181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -683,22 +863,22 @@
         <v>43689</v>
       </c>
       <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
       <c r="H8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191200132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -709,22 +889,22 @@
         <v>43690</v>
       </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
       <c r="H9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191202189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -735,22 +915,22 @@
         <v>43689</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
       <c r="H10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191202433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -761,498 +941,948 @@
         <v>43693</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191200179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43691</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
       <c r="H12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191201580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43693</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
       <c r="H13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191203607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43693</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
       <c r="H14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191200232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43705</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
       <c r="H15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191200238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43690</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
       <c r="H16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191200274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
       <c r="H17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191201589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43691</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
       <c r="H18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191203626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43696</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
       <c r="H19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191204134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43690</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
       <c r="H20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191200325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43698</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
       <c r="H21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191202469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43691</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
       <c r="H22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191201402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43700</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
       <c r="H23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191204640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43693</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
       <c r="H24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191214460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43696</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
       <c r="H25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191214462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43690</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
       <c r="H26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191200413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43693</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
       <c r="H27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191204471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43692</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
       <c r="H28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191202046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43697</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
       <c r="H29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191210466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43691</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
       <c r="H30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191204476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43692</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
       <c r="H31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191200489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43690</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
       <c r="H32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191210502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43698</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
       <c r="H33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191201381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43696</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
       <c r="H34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191200537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43696</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
       <c r="H35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191210564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43698</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>77</v>
+      </c>
       <c r="H36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191212519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43687</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
       <c r="H37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191210593</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43690</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
       <c r="H38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191200643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43690</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
       <c r="H39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191200656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43698</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
       <c r="H40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191212716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43692</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
       <c r="H41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191204516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="H42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="H43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="H44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="H45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="H46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="H47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="H48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="H49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="H50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="H51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="H52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="H53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="H54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="H55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="H56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="H57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="H58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="H59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="H60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="H61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="H62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="H63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="H64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="H65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="H66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="H67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="H68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="H69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="H70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="H71">
         <v>70</v>
       </c>
     </row>

--- a/public/FileImportMilitary/DC_DiaPhuong.xlsx
+++ b/public/FileImportMilitary/DC_DiaPhuong.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tai lieu\NCKH_K60\File_Code\NCKH\Backend_NCKH\public\FileImportMilitary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NCKH_Backend\public\FileImportMilitary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D6939A-4637-462E-B82A-5721F4C7BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E432A2BE-2905-466D-81D6-202721194E44}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="65">
   <si>
     <t>stt</t>
   </si>
@@ -72,68 +71,182 @@
     <t>Khu Quán Gỏi, xã Hưng Thịnh, Bình Giang, Hải Dương</t>
   </si>
   <si>
-    <t>BCHQS XÃ HƯNG THỊNH</t>
-  </si>
-  <si>
-    <t>BCHQS XÃ VẠN ĐIỂM</t>
-  </si>
-  <si>
     <t>Ấp Đông Côi, Thị trấn Hồ, Thuận Thành, Bắc Ninh</t>
   </si>
   <si>
-    <t>Ban CHQS THỊ TRẤN HỒ</t>
-  </si>
-  <si>
     <t>Thôn 1, Đông Mỹ, Thanh Trì, Hà Nội</t>
   </si>
   <si>
-    <t>BAN CHQS XÃ ĐÔNG MỸ</t>
-  </si>
-  <si>
     <t>Lạc Thổ Nam, Thị trấn Hồ, Thuận Thành, Bắc Ninh</t>
   </si>
   <si>
     <t>số 9 ngách 99/3 Nguyễn Chí Thanh, Láng Hạ, Đống Đa, Hà Nội</t>
   </si>
   <si>
-    <t>BAN CHQS PHƯỜNG LÁNG HẠ</t>
-  </si>
-  <si>
     <t>Vũ Hòa, Kiến Xương, Thái Bình</t>
   </si>
   <si>
-    <t>BAN CHQS XÃ VŨ HÒA</t>
-  </si>
-  <si>
     <t>Thôn Thống Nhất, Thành Vinh, Thạch Thành, Thanh Hóa</t>
   </si>
   <si>
-    <t>BAN CHQS XÃ THÀNH VINH</t>
-  </si>
-  <si>
     <t>thôn Thống nhất, xã Phương Khoan, huyện Sông Lô, Vĩnh Phúc</t>
   </si>
   <si>
-    <t>BAN CHQS XÃ PHƯƠNG KHOAN</t>
-  </si>
-  <si>
     <t>BAN CHQS XÃ MINH THANH</t>
   </si>
   <si>
     <t>thôn Lê, xã Minh Thanh, Sơn Dương, Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Xã Đông Minh</t>
+  </si>
+  <si>
+    <t>Tiến Thịnh - Mê Linh - Hà Nội</t>
+  </si>
+  <si>
+    <t>Liêm Tuyết- Quốc Oai - Hà Nội</t>
+  </si>
+  <si>
+    <t>Phường Cổ Nhuế 2</t>
+  </si>
+  <si>
+    <t>Xã Hải Phương - Huyện Hải Hậu - Tỉnh Nam Định</t>
+  </si>
+  <si>
+    <t>Hồ Tùng Mậu</t>
+  </si>
+  <si>
+    <t>Thôn Hữu Nghị - Thị Trấn PT</t>
+  </si>
+  <si>
+    <t>Giao Thịnh - Giao Thủy - Nam Định</t>
+  </si>
+  <si>
+    <t>xã Kinh Kệ - Lâm Thao - Phú Thọ</t>
+  </si>
+  <si>
+    <t>Thái Đô - Thái Thụy - Thái Bình</t>
+  </si>
+  <si>
+    <t>Nghĩa Bình - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>Yên Bình - Ý Yên Nam Định</t>
+  </si>
+  <si>
+    <t>Xã Nghĩa Trung - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>Thôn Thanh Miếu - xã Vũ Phúc</t>
+  </si>
+  <si>
+    <t>Nghĩa Hồng - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>Tổ 1 Nghĩa Đô, Cầu Giấy, Hà Nội</t>
+  </si>
+  <si>
+    <t>Đội Cấn, Ba Đình, Hà Nội</t>
+  </si>
+  <si>
+    <t>Bình Khê- Đông Chiều- Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Học - Yên Bái</t>
+  </si>
+  <si>
+    <t>Phương Tú - Ứng Hòa- Hà Nội</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc - Ba Đình -Hà nội</t>
+  </si>
+  <si>
+    <t>Số 20/160 đường Đá Bạc, XK, ST</t>
+  </si>
+  <si>
+    <t>BAN CHQS QUẬN BẮC TỪ LIÊM</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ HẢI PHƯƠNG</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ HỒ TÙNG MẬU</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ LIỆP TUYẾT</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ TIẾN THỊNH</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ ĐÔNG MINH</t>
+  </si>
+  <si>
+    <t>BAN CHQS THỊ TRẤN PHONG THỔ</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ GIAO THỊNH</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ KINH KỆ</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ THÁI ĐÔ</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ NGHĨA BÌNH</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ  YÊN BÌNH</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ NGHĨA TRUNG</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ VŨ PHÚC</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ NGHĨA HỒNG</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG NGHĨA ĐÔ</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG ĐỘI CẤN</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ BÌNH KHÊ</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG NGUYỄN THÁI HỌC</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ PHƯƠNG TÚ</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG VĨNH PHÚC</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG XUÂN KHANH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,16 +265,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,25 +603,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C63CFA-5EB6-4135-9FE7-621954B2F8AB}">
-  <dimension ref="A1:H71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42:H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.9140625" customWidth="1"/>
-    <col min="4" max="4" width="52.75" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.4140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -527,7 +658,7 @@
         <v>43696</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -536,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -553,7 +684,7 @@
         <v>44148</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -562,13 +693,13 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -579,7 +710,7 @@
         <v>43691</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -588,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -605,7 +736,7 @@
         <v>43693</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -614,13 +745,13 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -631,7 +762,7 @@
         <v>43692</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -640,13 +771,13 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -657,7 +788,7 @@
         <v>43691</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -666,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -683,7 +814,7 @@
         <v>43689</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -692,13 +823,13 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -709,7 +840,7 @@
         <v>43690</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -718,13 +849,13 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -744,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -770,490 +901,1092 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
       <c r="H12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
       <c r="H13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
       <c r="H14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
       <c r="H15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
       <c r="H16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
       <c r="H17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
       <c r="H18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
       <c r="H19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
       <c r="H20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
       <c r="H21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
       <c r="H22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
       <c r="H23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
       <c r="H24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
       <c r="H25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
       <c r="H26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
       <c r="H27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
       <c r="H28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
       <c r="H29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
       <c r="H30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
       <c r="H31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
       <c r="H32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
       <c r="H33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
       <c r="H34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
       <c r="H35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
       <c r="H36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
       <c r="H37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
       <c r="H38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
       <c r="H39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
       <c r="H40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
       <c r="H41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="H42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43199</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="2">
+        <v>191203757</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="H43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43191</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="2">
+        <v>191200846</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="H44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="2">
+        <v>191200847</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="H45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43191</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="2">
+        <v>191210859</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="H46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43198</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="2">
+        <v>191203366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="H47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43192</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="2">
+        <v>191202730</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="H48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43680</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="2">
+        <v>191200882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="H49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43191</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="2">
+        <v>191203380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="H50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43160</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="2">
+        <v>191201676</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="H51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" s="2">
+        <v>191203828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="H52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43191</v>
+      </c>
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="2">
+        <v>191203414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="H53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43191</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="2">
+        <v>191203397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="H54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>24</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43191</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="2">
+        <v>191203425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="H55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43198</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="2">
+        <v>191203839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="H56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43191</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="2">
+        <v>191213451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="H57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43191</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" s="2">
+        <v>191201043</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="H58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43197</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="2">
+        <v>191211047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="H59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43193</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" s="2">
+        <v>191201953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="H60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43233</v>
+      </c>
+      <c r="D60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="2">
+        <v>191211531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="H61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43191</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="2">
+        <v>191201082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="H62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43197</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="2">
+        <v>191211102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="H63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="H64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43198</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
         <v>64</v>
       </c>
-      <c r="H65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="H66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="H67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="H68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="H69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="H70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="H71">
-        <v>70</v>
+      <c r="H63" s="2">
+        <v>191201161</v>
       </c>
     </row>
   </sheetData>

--- a/public/FileImportMilitary/DC_DiaPhuong.xlsx
+++ b/public/FileImportMilitary/DC_DiaPhuong.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,21 +19,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
   <si>
     <t>stt</t>
   </si>
@@ -300,19 +291,157 @@
   </si>
   <si>
     <t>mã sinh viên</t>
+  </si>
+  <si>
+    <t>Xã Đông Minh</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ ĐÔNG MINH</t>
+  </si>
+  <si>
+    <t>Tiến Thịnh - Mê Linh - Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ TIẾN THỊNH</t>
+  </si>
+  <si>
+    <t>Liêm Tuyết- Quốc Oai - Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ LIỆP TUYẾT</t>
+  </si>
+  <si>
+    <t>Phường Cổ Nhuế 2</t>
+  </si>
+  <si>
+    <t>BAN CHQS QUẬN BẮC TỪ LIÊM</t>
+  </si>
+  <si>
+    <t>Xã Hải Phương - Huyện Hải Hậu - Tỉnh Nam Định</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ HẢI PHƯƠNG</t>
+  </si>
+  <si>
+    <t>Hồ Tùng Mậu</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ HỒ TÙNG MẬU</t>
+  </si>
+  <si>
+    <t>Thôn Hữu Nghị - Thị Trấn PT</t>
+  </si>
+  <si>
+    <t>BAN CHQS THỊ TRẤN PHONG THỔ</t>
+  </si>
+  <si>
+    <t>Giao Thịnh - Giao Thủy - Nam Định</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ GIAO THỊNH</t>
+  </si>
+  <si>
+    <t>xã Kinh Kệ - Lâm Thao - Phú Thọ</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ KINH KỆ</t>
+  </si>
+  <si>
+    <t>Thái Đô - Thái Thụy - Thái Bình</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ THÁI ĐÔ</t>
+  </si>
+  <si>
+    <t>Nghĩa Bình - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ NGHĨA BÌNH</t>
+  </si>
+  <si>
+    <t>Yên Bình - Ý Yên Nam Định</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ  YÊN BÌNH</t>
+  </si>
+  <si>
+    <t>Xã Nghĩa Trung - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ NGHĨA TRUNG</t>
+  </si>
+  <si>
+    <t>Thôn Thanh Miếu - xã Vũ Phúc</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ VŨ PHÚC</t>
+  </si>
+  <si>
+    <t>Nghĩa Hồng - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ NGHĨA HỒNG</t>
+  </si>
+  <si>
+    <t>Tổ 1 Nghĩa Đô, Cầu Giấy, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG NGHĨA ĐÔ</t>
+  </si>
+  <si>
+    <t>Đội Cấn, Ba Đình, Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG ĐỘI CẤN</t>
+  </si>
+  <si>
+    <t>Bình Khê- Đông Chiều- Quảng Ninh</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ BÌNH KHÊ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Học - Yên Bái</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG NGUYỄN THÁI HỌC</t>
+  </si>
+  <si>
+    <t>Phương Tú - Ứng Hòa- Hà Nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS XÃ PHƯƠNG TÚ</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc - Ba Đình -Hà nội</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG VĨNH PHÚC</t>
+  </si>
+  <si>
+    <t>Số 20/160 đường Đá Bạc, XK, ST</t>
+  </si>
+  <si>
+    <t>BAN CHQS PHƯỜNG XUÂN KHANH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -323,7 +452,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -331,17 +460,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -653,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1737,153 +1886,575 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
+      <c r="B42" s="3">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43199</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="5">
+        <v>191203757</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
+      <c r="B43" s="3">
+        <v>17</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="5">
+        <v>191200846</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="5">
+        <v>191200847</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
+      <c r="B45" s="3">
+        <v>66</v>
+      </c>
+      <c r="C45" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="5">
+        <v>191210859</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4">
+        <v>43198</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="5">
+        <v>191203366</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
+      <c r="B47" s="3">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43192</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="5">
+        <v>191202730</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49">
+      <c r="B48" s="3">
+        <v>3</v>
+      </c>
+      <c r="C48" s="4">
+        <v>43680</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H48" s="5">
+        <v>191200882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50">
+      <c r="B49" s="3">
+        <v>14</v>
+      </c>
+      <c r="C49" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="5">
+        <v>191203380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51">
+      <c r="B50" s="3">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4">
+        <v>43160</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="5">
+        <v>191201676</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52">
+      <c r="B51" s="3">
+        <v>8</v>
+      </c>
+      <c r="C51" s="4">
+        <v>43202</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" s="5">
+        <v>191203828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" s="5">
+        <v>191203414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54">
+      <c r="B53" s="3">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="5">
+        <v>191203397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55">
+      <c r="B54" s="3">
+        <v>24</v>
+      </c>
+      <c r="C54" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="5">
+        <v>191203425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56">
+      <c r="B55" s="3">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4">
+        <v>43198</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" s="5">
+        <v>191203839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57">
+      <c r="B56" s="3">
+        <v>15</v>
+      </c>
+      <c r="C56" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" s="5">
+        <v>191213451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="B57" s="3">
+        <v>38</v>
+      </c>
+      <c r="C57" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H57" s="5">
+        <v>191201043</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59">
+      <c r="B58" s="3">
+        <v>25</v>
+      </c>
+      <c r="C58" s="4">
+        <v>43197</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H58" s="5">
+        <v>191211047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60">
+      <c r="B59" s="3">
+        <v>7</v>
+      </c>
+      <c r="C59" s="4">
+        <v>43193</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" s="5">
+        <v>191201953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61">
+      <c r="B60" s="3">
+        <v>18</v>
+      </c>
+      <c r="C60" s="4">
+        <v>43233</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H60" s="5">
+        <v>191211531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62">
+      <c r="B61" s="3">
+        <v>13</v>
+      </c>
+      <c r="C61" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="5">
+        <v>191201082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63">
+      <c r="B62" s="3">
+        <v>15</v>
+      </c>
+      <c r="C62" s="4">
+        <v>43197</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" s="5">
+        <v>191211102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>70</v>
+      <c r="B63" s="3">
+        <v>3</v>
+      </c>
+      <c r="C63" s="4">
+        <v>43198</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H63" s="5">
+        <v>191201161</v>
       </c>
     </row>
   </sheetData>
